--- a/data/test/IncDec-test-78516.xlsx
+++ b/data/test/IncDec-test-78516.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
+          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
+          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
+          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,27 +478,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
+          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Each day more exploration and development activity in the Gulf is lost</t>
+          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,97 +518,97 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
+          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
+          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
+          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
+          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
+          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
+          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
+          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
+          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,17 +618,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
+          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
+          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,97 +638,97 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
+          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
+          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
+          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
+          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
+          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
+          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
+          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
+          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,37 +738,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
+          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
+          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
+          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,27 +778,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
+          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
+          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
+          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
+          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,17 +828,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,57 +848,57 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
+          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
+          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
+          <t>This need not be limited to natural gas or other energy products</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
+          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
+          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,17 +928,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
+          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
+          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
+          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,27 +968,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
+          <t>We do have about 9000 megawatts of cogeneration facilities</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>We had better find a way to use coal in a clean manner</t>
+          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,27 +1018,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
+          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
+          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
+          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,37 +1048,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
+          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
+          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,27 +1088,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
+          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
+          <t>For the first time in six decades the United States is a net natural gas exporter</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,37 +1138,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,27 +1178,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
+          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
+          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
+          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,17 +1208,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
+          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,17 +1228,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
+          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
+          <t>These are just a few of the growing costs of carbon pollution</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,17 +1248,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
+          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
+          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,47 +1268,47 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
+          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+          <t>Exporting oil just doesnt make any sense</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,17 +1318,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
+          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>US carbon trading is coming</t>
+          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,67 +1338,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>So this war on coal must stop</t>
+          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
+          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
+          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>These two projects represent the future of coal</t>
+          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,57 +1408,57 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
+          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
+          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
+          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,17 +1468,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>I want to ask you Mr Chairman and each of the Commissioners can you for the record as short of a guarantee state that the NRC is doing its absolute best to eliminate any and all known threats to nuclear safety in this Nation</t>
+          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,17 +1488,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
+          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
+          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
+          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,17 +1528,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
+          <t>Now we have lowcost fuel</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
+          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
+          <t>Electricity generated from coal is used in all 50 states</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,77 +1568,77 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
+          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
+          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,17 +1648,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,37 +1678,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+          <t>A leading example is the Energy Star Program which is delivering significant results</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
+          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
+          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
+          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
+          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
+          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,37 +1758,37 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
+          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>It would affect ethanol prices to some extent</t>
+          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
+          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,27 +1798,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
+          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,31 +1828,41 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
+          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
